--- a/Eagle/Modules/BOMs/H-Bridge BOM.xlsx
+++ b/Eagle/Modules/BOMs/H-Bridge BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Phaedra\Desktop\github\Electrical-Library-Parts\Eagle\Modules\BOMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phaedra\Desktop\github\Electrical-Library-Parts\Eagle\Modules\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2422C0D3-72D0-48BF-984D-1B4973331663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607359F4-3E03-4041-9727-2A229E7D108B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DB9808F-1FEE-4297-9AAF-C592BD990826}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Part</t>
   </si>
@@ -57,51 +57,12 @@
     <t>H-BRIDGE</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>UP,DOWN</t>
-  </si>
-  <si>
     <t>OK1,OK2</t>
   </si>
   <si>
-    <t>Q1,Q2</t>
-  </si>
-  <si>
-    <t>Q3,Q4</t>
-  </si>
-  <si>
-    <t>R1, R2</t>
-  </si>
-  <si>
-    <t>R3,R4</t>
-  </si>
-  <si>
-    <t>R5,R6</t>
-  </si>
-  <si>
-    <t>220u</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>4.7k</t>
   </si>
   <si>
-    <t>32-8797-1-ND</t>
-  </si>
-  <si>
-    <t>Würth Elektronik</t>
-  </si>
-  <si>
-    <t>Radial 6.3mm</t>
-  </si>
-  <si>
-    <t>Aluminum Electrolytic Capacitor, 20%, 16V</t>
-  </si>
-  <si>
     <t>0805</t>
   </si>
   <si>
@@ -162,51 +123,50 @@
     <t>Molex</t>
   </si>
   <si>
-    <t>900-0022232021-ND</t>
-  </si>
-  <si>
     <t>Qty.</t>
   </si>
   <si>
-    <t>Board to board connector, 0.1"</t>
-  </si>
-  <si>
-    <t>0.1"</t>
-  </si>
-  <si>
     <t>Stackpole</t>
   </si>
   <si>
-    <t>RNCP0805FTD10K0</t>
-  </si>
-  <si>
-    <t>RNCP0805FTD10K0CT-ND</t>
-  </si>
-  <si>
-    <t>Yageo</t>
-  </si>
-  <si>
-    <t>RC0805JR-071KL</t>
-  </si>
-  <si>
-    <t>311-1.0KARCT-ND</t>
+    <t>R1, R4</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD10K0</t>
+  </si>
+  <si>
+    <t>RNCP0603FTD10K0CT-ND</t>
+  </si>
+  <si>
+    <t>R2,R4</t>
+  </si>
+  <si>
+    <t>P1,P2</t>
+  </si>
+  <si>
+    <t>N1,N2</t>
+  </si>
+  <si>
+    <t>JP1</t>
+  </si>
+  <si>
+    <t>Recta</t>
+  </si>
+  <si>
+    <t>0.1" Connector Header Male w/ 1 wall</t>
+  </si>
+  <si>
+    <t>WM4201-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -290,28 +250,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -323,89 +261,34 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E233CA6A-1765-4342-BFAB-5557965AE050}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -769,202 +652,150 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11">
-        <v>860020373010</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>19</v>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6">
+        <v>22232031</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="5"/>
-      <c r="D4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="14">
-        <v>22232021</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>43</v>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6">
+        <v>37</v>
+      </c>
+      <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>35</v>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6">
+        <v>38</v>
+      </c>
+      <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5">
+        <v>220</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>41</v>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="9">
-        <v>2</v>
-      </c>
-      <c r="C8" s="8">
-        <v>110</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
